--- a/portfolio_example.xlsx
+++ b/portfolio_example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>SYMBOL</t>
   </si>
@@ -22,25 +22,19 @@
     <t>QUANTITY</t>
   </si>
   <si>
-    <t>PURCHASE PRICE</t>
+    <t>AVG PURCHASE PRICE</t>
   </si>
   <si>
     <t>PURCHASE COST</t>
   </si>
   <si>
-    <t>ORIGINAL ALLOCATION</t>
-  </si>
-  <si>
     <t>CURRENT PRICE</t>
   </si>
   <si>
     <t>CURRENT VALUE</t>
   </si>
   <si>
-    <t>UNREALIZED GAIN/LOSS</t>
-  </si>
-  <si>
-    <t>CURRENT PORFOLIO ALLOCATION</t>
+    <t>UNREALIZED P&amp;L</t>
   </si>
   <si>
     <t>TSLA</t>
@@ -102,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -113,7 +107,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -340,10 +333,9 @@
     <col customWidth="1" min="2" max="2" width="17.88"/>
     <col customWidth="1" min="4" max="4" width="16.13"/>
     <col customWidth="1" min="5" max="5" width="15.88"/>
-    <col customWidth="1" min="6" max="6" width="20.63"/>
-    <col customWidth="1" min="7" max="7" width="15.25"/>
-    <col customWidth="1" min="8" max="8" width="15.75"/>
-    <col customWidth="1" min="9" max="9" width="20.88"/>
+    <col customWidth="1" min="6" max="6" width="15.25"/>
+    <col customWidth="1" min="7" max="7" width="15.75"/>
+    <col customWidth="1" min="8" max="8" width="20.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -371,16 +363,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>44564.0</v>
@@ -396,28 +382,20 @@
         <v>3825.8</v>
       </c>
       <c r="F2" s="1">
-        <f>E2/sum(E2:E6)</f>
-        <v>0.3101530579</v>
-      </c>
-      <c r="G2" s="1">
         <v>109.11</v>
       </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G6" si="2">C2*F2</f>
+        <v>1091.1</v>
+      </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H6" si="2">C2*G2</f>
-        <v>1091.1</v>
-      </c>
-      <c r="I2" s="3">
-        <f t="shared" ref="I2:I6" si="3">H2-E2</f>
+        <f t="shared" ref="H2:H6" si="3">G2-E2</f>
         <v>-2734.7</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" ref="J2:J6" si="4">H2/sum($H$2:$H$6)</f>
-        <v>0.1487099808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>44564.0</v>
@@ -425,7 +403,7 @@
       <c r="C3" s="1">
         <v>10.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>177.83</v>
       </c>
       <c r="E3" s="3">
@@ -433,28 +411,20 @@
         <v>1778.3</v>
       </c>
       <c r="F3" s="1">
-        <f>E3/sum(E2:E6)</f>
-        <v>0.144164667</v>
-      </c>
-      <c r="G3" s="1">
         <v>126.89</v>
       </c>
-      <c r="H3" s="3">
+      <c r="G3" s="3">
         <f t="shared" si="2"/>
         <v>1268.9</v>
       </c>
-      <c r="I3" s="3">
+      <c r="H3" s="3">
         <f t="shared" si="3"/>
         <v>-509.4</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" si="4"/>
-        <v>0.1729429884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
         <v>44564.0</v>
@@ -470,28 +440,20 @@
         <v>3353.5</v>
       </c>
       <c r="F4" s="1">
-        <f>E4/sum(E2:E6)</f>
-        <v>0.2718642584</v>
-      </c>
-      <c r="G4" s="1">
         <v>232.27</v>
       </c>
-      <c r="H4" s="3">
+      <c r="G4" s="3">
         <f t="shared" si="2"/>
         <v>2322.7</v>
       </c>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
         <f t="shared" si="3"/>
         <v>-1030.8</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="4"/>
-        <v>0.3165692167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
         <v>44564.0</v>
@@ -499,36 +461,28 @@
       <c r="C5" s="1">
         <v>10.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>167.55</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>1675.5</v>
       </c>
-      <c r="F5" s="1">
-        <f>E5/sum(E2:E6)</f>
-        <v>0.1358307932</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="4">
         <v>86.55</v>
       </c>
-      <c r="H5" s="3">
+      <c r="G5" s="3">
         <f t="shared" si="2"/>
         <v>865.5</v>
       </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3">
         <f t="shared" si="3"/>
         <v>-810</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="4"/>
-        <v>0.1179621376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>44564.0</v>
@@ -544,23 +498,15 @@
         <v>1702.1</v>
       </c>
       <c r="F6" s="1">
-        <f>E6/sum(E2:E6)</f>
-        <v>0.1379872236</v>
-      </c>
-      <c r="G6" s="1">
         <v>178.89</v>
       </c>
-      <c r="H6" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="2"/>
         <v>1788.9</v>
       </c>
-      <c r="I6" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="3"/>
         <v>86.8</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="4"/>
-        <v>0.2438156765</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio_example.xlsx
+++ b/portfolio_example.xlsx
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -70,6 +70,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF232A31"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF232A31"/>
@@ -96,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -108,6 +112,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -369,17 +376,17 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>44564.0</v>
+        <v>43832.0</v>
       </c>
       <c r="C2" s="1">
         <v>10.0</v>
       </c>
       <c r="D2" s="1">
-        <v>382.58</v>
+        <v>29.37</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E6" si="1">D2*C2</f>
-        <v>3825.8</v>
+        <v>293.7</v>
       </c>
       <c r="F2" s="1">
         <v>109.11</v>
@@ -390,7 +397,7 @@
       </c>
       <c r="H2" s="3">
         <f t="shared" ref="H2:H6" si="3">G2-E2</f>
-        <v>-2734.7</v>
+        <v>797.4</v>
       </c>
     </row>
     <row r="3">
@@ -398,17 +405,17 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>44564.0</v>
+        <v>43832.0</v>
       </c>
       <c r="C3" s="1">
         <v>10.0</v>
       </c>
       <c r="D3" s="4">
-        <v>177.83</v>
+        <v>74.06</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="1"/>
-        <v>1778.3</v>
+        <v>740.6</v>
       </c>
       <c r="F3" s="1">
         <v>126.89</v>
@@ -419,7 +426,7 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" si="3"/>
-        <v>-509.4</v>
+        <v>528.3</v>
       </c>
     </row>
     <row r="4">
@@ -427,17 +434,17 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>44564.0</v>
+        <v>43832.0</v>
       </c>
       <c r="C4" s="1">
         <v>10.0</v>
       </c>
       <c r="D4" s="1">
-        <v>335.35</v>
+        <v>158.78</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="1"/>
-        <v>3353.5</v>
+        <v>1587.8</v>
       </c>
       <c r="F4" s="1">
         <v>232.27</v>
@@ -448,7 +455,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="3"/>
-        <v>-1030.8</v>
+        <v>734.9</v>
       </c>
     </row>
     <row r="5">
@@ -456,19 +463,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>44564.0</v>
+        <v>43832.0</v>
       </c>
       <c r="C5" s="1">
         <v>10.0</v>
       </c>
       <c r="D5" s="4">
-        <v>167.55</v>
+        <v>93.75</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
-        <v>1675.5</v>
-      </c>
-      <c r="F5" s="4">
+        <v>937.5</v>
+      </c>
+      <c r="F5" s="5">
         <v>86.55</v>
       </c>
       <c r="G5" s="3">
@@ -477,7 +484,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="3"/>
-        <v>-810</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="6">
@@ -485,17 +492,17 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>44564.0</v>
+        <v>43832.0</v>
       </c>
       <c r="C6" s="1">
         <v>10.0</v>
       </c>
       <c r="D6" s="1">
-        <v>170.21</v>
+        <v>145.87</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>1702.1</v>
+        <v>1458.7</v>
       </c>
       <c r="F6" s="1">
         <v>178.89</v>
@@ -506,7 +513,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="3"/>
-        <v>86.8</v>
+        <v>330.2</v>
       </c>
     </row>
   </sheetData>
